--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IES.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IES.XLSX
@@ -139,6 +139,9 @@
     <t>3696</t>
   </si>
   <si>
+    <t>3827</t>
+  </si>
+  <si>
     <t>3939</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>JOSE RENATO AZEVEDO CORTES</t>
   </si>
   <si>
@@ -223,10 +223,10 @@
     <t>ANA PAULA BECK LEAO</t>
   </si>
   <si>
+    <t>JOSE HENRIQUE PESSANHA CHAGAS</t>
+  </si>
+  <si>
     <t>FERNANDO MIRANDA</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IES.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IES.XLSX
@@ -106,10 +106,10 @@
     <t>SETOR IES</t>
   </si>
   <si>
-    <t>PEDRO IVO GUIMARAES DE VASCONC</t>
-  </si>
-  <si>
-    <t>Matr.: 3170</t>
+    <t>ANA PAULA BECK LEAO</t>
+  </si>
+  <si>
+    <t>Matr.: 3696</t>
   </si>
   <si>
     <t>IES</t>
